--- a/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,38 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://twitter.com/klubjagiellonsk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/KJagiellonski/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,398 @@
       </c>
       <c r="B47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" onclick="</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" role="</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href=""&gt;&lt;i class="</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Klub Jagielloński</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/english/"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Po angielsku</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/spiecie/"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Spięcie</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/czytaj-regularnie/"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Czytaj regularnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kontakt dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/ludzie/"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ludzie</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/wesprzyj-nas/"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Wesprzyj nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/kalkulator-darowizn/"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kalkulator darowizn</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>O Klubie Jagiellońskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/about-the-jagiellonian-club-english/"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>About the Jagiellonian Club [ENGLISH]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/dane-dokumenty-i-sprawozdania/"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dane, dokumenty i sprawozdania</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/krotka-historia/"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Krótka historia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/gdansk/"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Gdańsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/katowice/"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Katowice</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/krakow/"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kraków</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/oddzial-wroclaw/"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Wrocław</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/poznan/"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Poznań</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/warszawa/"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Warszawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/polityka-prywatnosci-i-regulamin/"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/akademia-nowoczesnego-patriotyzmu/"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Akademia Nowoczesnego Patriotyzmu</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/aplikacja-pola/"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Aplikacja Pola</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/centrum-analiz/"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Centrum Analiz KJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/lokalna-osr/"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Lokalna OSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/nawigator-legislacyjny-narzedzie-wsparcia-dla-biznesu/"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nawigator legislacyjny - narzędzie wsparcia dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/noc-ksiazki/"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Noc książki</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/oferta-biznesowa-centrum-analiz-klubu-jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Oferta dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/pressje/"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pressje</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/v4-and-germany-round-table/"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>V4 and Germany Round Table</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/klubjagiellonsk"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/KJagiellonski/"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjiraporty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,18 @@
       </c>
       <c r="B81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/projekty/forum-polsko-czeskie-2022/</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Forum Polsko-Czeskie 2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
